--- a/Proyecto_Code/Pre-entrega/Pre_entrega_3/Pre_entrega_3/Casos de prueba.xlsx
+++ b/Proyecto_Code/Pre-entrega/Pre_entrega_3/Pre_entrega_3/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmendez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmendez\Desktop\github 1222024\Proyectofinal\Proyecto_Code\Pre-entrega\Pre_entrega_3\Pre_entrega_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314164FE-6E60-41DA-956E-54361ADE203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8E05F-E2EC-4A8F-879F-5AAF145F901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19994" yWindow="725" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Se visualizan los botones al inicio</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>Pantalla login</t>
   </si>
   <si>
@@ -122,17 +119,252 @@
   </si>
   <si>
     <t>problema en editar incidencia</t>
+  </si>
+  <si>
+    <t>Error a ir a templates de login</t>
+  </si>
+  <si>
+    <t>Error en visualizar no estaba el template correcto</t>
+  </si>
+  <si>
+    <t>Error en la herencia en template</t>
+  </si>
+  <si>
+    <t>NO estaba tomando bien el lugar del block</t>
+  </si>
+  <si>
+    <t>No se estaba visualizando lo solicitado</t>
+  </si>
+  <si>
+    <t>Prueba de login con visualizacion</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>Pantalla de registro</t>
+  </si>
+  <si>
+    <t>Prueba de visualizar el forms de registro</t>
+  </si>
+  <si>
+    <t>Error en el method.</t>
+  </si>
+  <si>
+    <t>Revision en el method y agregar form en el html</t>
+  </si>
+  <si>
+    <t>Correcto funcionamiento y registro</t>
+  </si>
+  <si>
+    <t>Pantalla registro y funcionamiento</t>
+  </si>
+  <si>
+    <t>cerrar sesion</t>
+  </si>
+  <si>
+    <t>Correcto funcionamiento</t>
+  </si>
+  <si>
+    <t>Configuracion de template de inicio, login y registro</t>
+  </si>
+  <si>
+    <t>Revision de la funcion CerrarSesion</t>
+  </si>
+  <si>
+    <t>Configurar la vista si el usuario esta logeado con if user.is_authenticated</t>
+  </si>
+  <si>
+    <t>Correcto funcionamiento con los botones disponibles</t>
+  </si>
+  <si>
+    <t>Caso #12</t>
+  </si>
+  <si>
+    <t>Caso #13</t>
+  </si>
+  <si>
+    <t>Caso #14</t>
+  </si>
+  <si>
+    <t>Caso #15</t>
+  </si>
+  <si>
+    <t>Caso #16</t>
+  </si>
+  <si>
+    <t>Caso #17</t>
+  </si>
+  <si>
+    <t>Caso #18</t>
+  </si>
+  <si>
+    <t>Actualización de datos</t>
+  </si>
+  <si>
+    <t>Modificacion de datos del usuario Pass, nombre apellido</t>
+  </si>
+  <si>
+    <t>Update correcto</t>
+  </si>
+  <si>
+    <t>Agregar avatar</t>
+  </si>
+  <si>
+    <t>En la solapa de actualizar usuario hay un boton de actualizar avatar.</t>
+  </si>
+  <si>
+    <t>Se guarda en la DB el avatar pero no se visualiza</t>
+  </si>
+  <si>
+    <t>Visualizacion de imagen a un lado del nombre user</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>El img src en el Html no estaba en el condicional if user.is_authenticate por esa razon no se visualizaba, se corrigio esta correcto</t>
+  </si>
+  <si>
+    <t>Visualizacion del AVATAR enupdate de usuario</t>
+  </si>
+  <si>
+    <t>No se Visualiza el avatar en la pantalla actualizar usuario</t>
+  </si>
+  <si>
+    <t>A momento de editar el usuario no se visualiza el avatar si tiene cargado uno</t>
+  </si>
+  <si>
+    <t>En las funcion de EditarPerfil solicito el usuario authenticado asi el lee el HTML</t>
+  </si>
+  <si>
+    <t>Creando Incidencia Visualización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se crea el template nueva_inci con su form. </t>
+  </si>
+  <si>
+    <t>Se visualiza correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creando Incidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se crea la incidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se guarda en la DB la Informacion de la incidencia </t>
+  </si>
+  <si>
+    <t>Buscando Incidencia Por Estado</t>
+  </si>
+  <si>
+    <t>Se buscan las incidencia solamente por el estado</t>
+  </si>
+  <si>
+    <t>Se realiza la busqueda con la funcion BuscarIncidencia, se tiene que consultar con el nombre correcto.</t>
+  </si>
+  <si>
+    <t>Caso #19</t>
+  </si>
+  <si>
+    <t>Caso #20</t>
+  </si>
+  <si>
+    <t>Caso #21</t>
+  </si>
+  <si>
+    <t>Caso #22</t>
+  </si>
+  <si>
+    <t>Caso #23</t>
+  </si>
+  <si>
+    <t>Caso #24</t>
+  </si>
+  <si>
+    <t>Pruebas de estado en mayusculas o minusculas</t>
+  </si>
+  <si>
+    <t>Pruebas de buscar en minuscula el estado. Error usando upper()</t>
+  </si>
+  <si>
+    <t>Se corrigue: primero se trae la informacion del form y despues se pasa a mayuscula</t>
+  </si>
+  <si>
+    <t>Pruebas de editar la incidencia (Update)</t>
+  </si>
+  <si>
+    <t>Al momento de editar se confirma en el boton y trae error missing 1 required</t>
+  </si>
+  <si>
+    <t>Estaba faltando colocar el ID que queremos editar, se corrigió</t>
+  </si>
+  <si>
+    <t>Borrando incidencia</t>
+  </si>
+  <si>
+    <t>Template de confirmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba en borrar Incidencia correcta. Va a Template confirmar </t>
+  </si>
+  <si>
+    <t>Datos de Informacion</t>
+  </si>
+  <si>
+    <t>Prueba de enlaces de informacion y contacto abajo a la derecha</t>
+  </si>
+  <si>
+    <t>Boton de quienes somos: Informacion de mi persona y de que trata la WEB y de Contacto: informacion ficticia de la empresa de ON ticket</t>
+  </si>
+  <si>
+    <t>Ajuste de Informacion</t>
+  </si>
+  <si>
+    <t>Revision de los forms y Template</t>
+  </si>
+  <si>
+    <t>Ajuste de las los string de los forms, de los template para una vista mejor. Es decir colocar mayusculas o palabaras correctas</t>
+  </si>
+  <si>
+    <t>Proyecto Final</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>121.0.6167.140 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>Hugo Mendez</t>
+  </si>
+  <si>
+    <t>Pruebas de la WEB ON TICKET</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise, equipo: 11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz   2.42 GHz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +389,25 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -178,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,33 +452,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,19 +764,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" customWidth="1"/>
     <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" customWidth="1"/>
+    <col min="4" max="4" width="74.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109" bestFit="1" customWidth="1"/>
     <col min="6" max="25" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,285 +784,618 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" spans="1:25" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="25">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="24" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="24" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="24" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="15.55" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="15.55" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>45314</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6">
         <v>45314</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45314</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45315</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45316</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
-        <v>44652</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
-        <v>44653</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <v>44654</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <v>44655</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <v>44656</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>44657</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8">
-        <v>44658</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8">
-        <v>44659</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45316</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45316</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45317</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45319</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1711,10 +2364,8 @@
     <row r="996" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="997" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="998" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.8" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
